--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111741082</v>
+        <v>111741014</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,26 +925,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -952,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331468.5669229594</v>
+        <v>331429.3527348472</v>
       </c>
       <c r="R4" t="n">
-        <v>6627064.351006002</v>
+        <v>6627058.050714097</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1025,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111741014</v>
+        <v>111741082</v>
       </c>
       <c r="B5" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,27 +1042,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331429.3527348472</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R5" t="n">
-        <v>6627058.050714097</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111741120</v>
+        <v>111741038</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,31 +1158,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1190,10 +1186,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331468.5669229594</v>
+        <v>331443.3172632467</v>
       </c>
       <c r="R6" t="n">
-        <v>6627064.351006002</v>
+        <v>6627064.989183033</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1244,6 +1240,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1262,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111741038</v>
+        <v>111741120</v>
       </c>
       <c r="B7" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1278,27 +1275,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1306,10 +1307,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331443.3172632467</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R7" t="n">
-        <v>6627064.989183033</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1360,7 +1361,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111741025</v>
+        <v>111741082</v>
       </c>
       <c r="B3" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,27 +808,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -836,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331437.2628167981</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R3" t="n">
-        <v>6627065.263253132</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1026,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111741082</v>
+        <v>111741025</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,26 +1041,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331468.5669229594</v>
+        <v>331437.2628167981</v>
       </c>
       <c r="R5" t="n">
-        <v>6627064.351006002</v>
+        <v>6627065.263253132</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111741038</v>
+        <v>111741120</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,27 +1158,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1186,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331443.3172632467</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R6" t="n">
-        <v>6627064.989183033</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1244,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1259,10 +1262,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111741120</v>
+        <v>111741038</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>94134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,31 +1278,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1307,10 +1306,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331468.5669229594</v>
+        <v>331443.3172632467</v>
       </c>
       <c r="R7" t="n">
-        <v>6627064.351006002</v>
+        <v>6627064.989183033</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,6 +1360,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111741082</v>
+        <v>111741038</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,26 +808,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -835,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331468.5669229594</v>
+        <v>331443.3172632467</v>
       </c>
       <c r="R3" t="n">
-        <v>6627064.351006002</v>
+        <v>6627064.989183033</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111741014</v>
+        <v>111741082</v>
       </c>
       <c r="B4" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,27 +925,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331429.3527348472</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R4" t="n">
-        <v>6627058.050714097</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111741120</v>
+        <v>111741014</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,31 +1158,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1190,10 +1186,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331468.5669229594</v>
+        <v>331429.3527348472</v>
       </c>
       <c r="R6" t="n">
-        <v>6627064.351006002</v>
+        <v>6627058.050714097</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1244,6 +1240,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1262,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111741038</v>
+        <v>111741120</v>
       </c>
       <c r="B7" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1278,27 +1275,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1306,10 +1307,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331443.3172632467</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R7" t="n">
-        <v>6627064.989183033</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1360,7 +1361,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111741038</v>
+        <v>111741082</v>
       </c>
       <c r="B3" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,27 +808,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -836,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331443.3172632467</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R3" t="n">
-        <v>6627064.989183033</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -909,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111741082</v>
+        <v>111741025</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,26 +924,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331468.5669229594</v>
+        <v>331437.2628167981</v>
       </c>
       <c r="R4" t="n">
-        <v>6627064.351006002</v>
+        <v>6627065.263253132</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111741025</v>
+        <v>111741120</v>
       </c>
       <c r="B5" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,27 +1041,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1069,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331437.2628167981</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R5" t="n">
-        <v>6627065.263253132</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1123,7 +1127,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1259,10 +1262,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111741120</v>
+        <v>111741038</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>94134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,31 +1278,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1307,10 +1306,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331468.5669229594</v>
+        <v>331443.3172632467</v>
       </c>
       <c r="R7" t="n">
-        <v>6627064.351006002</v>
+        <v>6627064.989183033</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,6 +1360,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111741120</v>
+        <v>111741014</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>94134</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,31 +1041,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1073,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331468.5669229594</v>
+        <v>331429.3527348472</v>
       </c>
       <c r="R5" t="n">
-        <v>6627064.351006002</v>
+        <v>6627058.050714097</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1127,6 +1123,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1145,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111741014</v>
+        <v>111741120</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1161,27 +1158,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1189,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331429.3527348472</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R6" t="n">
-        <v>6627058.050714097</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,7 +1244,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111741082</v>
+        <v>111741120</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,26 +808,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -889,7 +894,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -908,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111741025</v>
+        <v>111741082</v>
       </c>
       <c r="B4" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,27 +928,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -952,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331437.2628167981</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R4" t="n">
-        <v>6627065.263253132</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1142,10 +1145,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111741120</v>
+        <v>111741038</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,31 +1161,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1190,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331468.5669229594</v>
+        <v>331443.3172632467</v>
       </c>
       <c r="R6" t="n">
-        <v>6627064.351006002</v>
+        <v>6627064.989183033</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1244,6 +1243,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111741038</v>
+        <v>111741025</v>
       </c>
       <c r="B7" t="n">
         <v>94134</v>
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331443.3172632467</v>
+        <v>331437.2628167981</v>
       </c>
       <c r="R7" t="n">
-        <v>6627064.989183033</v>
+        <v>6627065.263253132</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111741120</v>
+        <v>111741014</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>94134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,31 +808,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -840,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331468.5669229594</v>
+        <v>331429.3527348472</v>
       </c>
       <c r="R3" t="n">
-        <v>6627064.351006002</v>
+        <v>6627058.050714097</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,6 +890,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -912,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111741082</v>
+        <v>111741038</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,26 +925,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -955,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331468.5669229594</v>
+        <v>331443.3172632467</v>
       </c>
       <c r="R4" t="n">
-        <v>6627064.351006002</v>
+        <v>6627064.989183033</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111741014</v>
+        <v>111741082</v>
       </c>
       <c r="B5" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,27 +1042,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1072,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331429.3527348472</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R5" t="n">
-        <v>6627058.050714097</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1145,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111741038</v>
+        <v>111741120</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1161,27 +1158,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1189,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331443.3172632467</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R6" t="n">
-        <v>6627064.989183033</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,7 +1244,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111741014</v>
+        <v>111741120</v>
       </c>
       <c r="B3" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,27 +808,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -836,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331429.3527348472</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R3" t="n">
-        <v>6627058.050714097</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -890,7 +894,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -1026,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111741082</v>
+        <v>111741025</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,26 +1045,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1069,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331468.5669229594</v>
+        <v>331437.2628167981</v>
       </c>
       <c r="R5" t="n">
-        <v>6627064.351006002</v>
+        <v>6627065.263253132</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1142,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111741120</v>
+        <v>111741014</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,31 +1162,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331468.5669229594</v>
+        <v>331429.3527348472</v>
       </c>
       <c r="R6" t="n">
-        <v>6627064.351006002</v>
+        <v>6627058.050714097</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1244,6 +1244,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1262,10 +1263,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111741025</v>
+        <v>111741082</v>
       </c>
       <c r="B7" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1278,27 +1279,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331437.2628167981</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R7" t="n">
-        <v>6627065.263253132</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111741014</v>
+        <v>111741082</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,27 +1162,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1190,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331429.3527348472</v>
+        <v>331468.5669229594</v>
       </c>
       <c r="R6" t="n">
-        <v>6627058.050714097</v>
+        <v>6627064.351006002</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1263,10 +1262,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111741082</v>
+        <v>111741014</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1279,26 +1278,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331468.5669229594</v>
+        <v>331429.3527348472</v>
       </c>
       <c r="R7" t="n">
-        <v>6627064.351006002</v>
+        <v>6627058.050714097</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,6 +1376,121 @@
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112206732</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90668</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>788</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hydnellum geogenium</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Öst Rövattnet, Vrm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>331462.4212874367</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6627062.610332122</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Roger Gran</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Roger Gran, Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111741120</v>
+        <v>111741082</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,31 +808,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -840,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331468.5669229594</v>
+        <v>331469</v>
       </c>
       <c r="R3" t="n">
-        <v>6627064.351006002</v>
+        <v>6627064</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,27 +868,18 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -912,7 +898,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111741038</v>
+        <v>111741025</v>
       </c>
       <c r="B4" t="n">
         <v>94134</v>
@@ -956,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331443.3172632467</v>
+        <v>331437</v>
       </c>
       <c r="R4" t="n">
-        <v>6627064.989183033</v>
+        <v>6627065</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -989,19 +975,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,7 +1005,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111741025</v>
+        <v>111741014</v>
       </c>
       <c r="B5" t="n">
         <v>94134</v>
@@ -1073,10 +1049,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>331437.2628167981</v>
+        <v>331429</v>
       </c>
       <c r="R5" t="n">
-        <v>6627065.263253132</v>
+        <v>6627058</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1106,19 +1082,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,10 +1112,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111741082</v>
+        <v>111741120</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,26 +1128,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1189,10 +1160,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331468.5669229594</v>
+        <v>331469</v>
       </c>
       <c r="R6" t="n">
-        <v>6627064.351006002</v>
+        <v>6627064</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1222,28 +1193,17 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1262,7 +1222,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111741014</v>
+        <v>111741038</v>
       </c>
       <c r="B7" t="n">
         <v>94134</v>
@@ -1306,10 +1266,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331429.3527348472</v>
+        <v>331443</v>
       </c>
       <c r="R7" t="n">
-        <v>6627058.050714097</v>
+        <v>6627065</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1339,19 +1299,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1422,10 +1372,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331462.4212874367</v>
+        <v>331462</v>
       </c>
       <c r="R8" t="n">
-        <v>6627062.610332122</v>
+        <v>6627063</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1455,19 +1405,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111741082</v>
+        <v>111741025</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,26 +808,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -835,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>331469</v>
+        <v>331437</v>
       </c>
       <c r="R3" t="n">
-        <v>6627064</v>
+        <v>6627065</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -898,7 +899,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111741025</v>
+        <v>111741038</v>
       </c>
       <c r="B4" t="n">
         <v>94134</v>
@@ -942,7 +943,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>331437</v>
+        <v>331443</v>
       </c>
       <c r="R4" t="n">
         <v>6627065</v>
@@ -1112,10 +1113,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111741120</v>
+        <v>111741082</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1128,31 +1129,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1204,6 +1200,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1222,10 +1219,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111741038</v>
+        <v>111741120</v>
       </c>
       <c r="B7" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1238,27 +1235,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1266,10 +1267,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331443</v>
+        <v>331469</v>
       </c>
       <c r="R7" t="n">
-        <v>6627065</v>
+        <v>6627064</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1310,7 +1311,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>112206732</v>
       </c>
       <c r="B8" t="n">
-        <v>90668</v>
+        <v>90802</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1432,6 +1432,108 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112395280</v>
+      </c>
+      <c r="B9" t="n">
+        <v>93206</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2809</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mörk husmossa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hylocomiastrum umbratum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Hedw.) M.Fleisch.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>331418</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6627063</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 4189-2019.xlsx
+++ b/artfynd/A 4189-2019.xlsx
@@ -1332,7 +1332,7 @@
         <v>112206732</v>
       </c>
       <c r="B8" t="n">
-        <v>90802</v>
+        <v>90816</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>112395280</v>
       </c>
       <c r="B9" t="n">
-        <v>93206</v>
+        <v>93220</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
